--- a/example/Sample_Bar_test1.xlsx
+++ b/example/Sample_Bar_test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D3B0D74-D73C-4799-8484-B58CAB578EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDBBCF6-1D5D-446F-8C54-FC7D37549C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18150" yWindow="1080" windowWidth="29730" windowHeight="14055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10515" yWindow="1380" windowWidth="40695" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="211">
   <si>
     <t>Do not change the format of the Acquisitions or Samples tab.Other tabs can be added and edited as needed.</t>
   </si>
@@ -693,6 +693,30 @@
   </si>
   <si>
     <t>TEST your bar ahead of beamtime by using the "rsoxs_plans" package https://github.com/NSLS-II-SST/rsoxs_scans - which includes the most up to date spreadsheet sample and the same code which will be used at the beamline</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>slack_message_start</t>
+  </si>
+  <si>
+    <t>slack_message_end</t>
+  </si>
+  <si>
+    <t>alignment</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>about to start alignment!</t>
+  </si>
+  <si>
+    <t>done with alignment</t>
+  </si>
+  <si>
+    <t>starting with the data</t>
   </si>
 </sst>
 </file>
@@ -38726,10 +38750,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116CCDDD-7003-4820-AA86-27B44350A195}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:V629"/>
+  <dimension ref="A1:Y629"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38758,10 +38782,10 @@
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31.140625" customWidth="1"/>
     <col min="24" max="24" width="19.28515625" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>120</v>
       </c>
@@ -38828,8 +38852,17 @@
       <c r="V1" s="24" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W1" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="13" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>80</v>
       </c>
@@ -38917,8 +38950,20 @@
         <f>VLOOKUP(V$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
         <v>high or low range for diode measurements</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" s="13" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W2" s="25" t="e">
+        <f>VLOOKUP(W$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X2" s="25" t="e">
+        <f>VLOOKUP(X$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y2" s="25" t="e">
+        <f>VLOOKUP(Y$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="13" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>81</v>
       </c>
@@ -39009,8 +39054,20 @@
         <f>VLOOKUP(V$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
         <v>high, low</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="25" t="e">
+        <f>VLOOKUP(W$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X3" s="25" t="e">
+        <f>VLOOKUP(X$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y3" s="25" t="e">
+        <f>VLOOKUP(Y$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>82</v>
       </c>
@@ -39098,8 +39155,20 @@
         <f>VLOOKUP(V$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
         <v>high</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" s="13" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="W4" s="25" t="e">
+        <f>VLOOKUP(W$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X4" s="25" t="e">
+        <f>VLOOKUP(X$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y4" s="25" t="e">
+        <f>VLOOKUP(Y$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="13" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>87</v>
       </c>
@@ -39187,8 +39256,20 @@
         <f>VLOOKUP(V$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
         <v>high should be used in any case where saturation might be a possibility - the majority of measurements</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" s="25" t="e">
+        <f>VLOOKUP(W$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X5" s="25" t="e">
+        <f>VLOOKUP(X$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y5" s="25" t="e">
+        <f>VLOOKUP(Y$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -39208,8 +39289,17 @@
         <v>66</v>
       </c>
       <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" t="s">
+        <v>206</v>
+      </c>
+      <c r="X6" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>3</v>
       </c>
@@ -39235,32 +39325,38 @@
         <v>0.3</v>
       </c>
       <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" t="s">
+        <v>207</v>
+      </c>
+      <c r="X7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">

--- a/example/Sample_Bar_test1.xlsx
+++ b/example/Sample_Bar_test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDBBCF6-1D5D-446F-8C54-FC7D37549C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B44CEB4-D7C4-4EAF-88B8-3002358096C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10515" yWindow="1380" windowWidth="40695" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="1365" windowWidth="40695" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="212">
   <si>
     <t>Do not change the format of the Acquisitions or Samples tab.Other tabs can be added and edited as needed.</t>
   </si>
@@ -717,6 +717,9 @@
   </si>
   <si>
     <t>starting with the data</t>
+  </si>
+  <si>
+    <t>hey &lt;@U04EZ5DSB33&gt; I'm done, get back to woirk!</t>
   </si>
 </sst>
 </file>
@@ -38753,7 +38756,7 @@
   <dimension ref="A1:Y629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38785,7 +38788,7 @@
     <col min="25" max="25" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>120</v>
       </c>
@@ -39330,6 +39333,9 @@
       </c>
       <c r="X7" t="s">
         <v>210</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">

--- a/example/Sample_Bar_test1.xlsx
+++ b/example/Sample_Bar_test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B44CEB4-D7C4-4EAF-88B8-3002358096C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF764FD-843E-4165-8DF5-88D51E73B7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4995" yWindow="1365" windowWidth="40695" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,9 +707,6 @@
     <t>alignment</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>about to start alignment!</t>
   </si>
   <si>
@@ -719,7 +716,10 @@
     <t>starting with the data</t>
   </si>
   <si>
-    <t>hey &lt;@U04EZ5DSB33&gt; I'm done, get back to woirk!</t>
+    <t>hey &lt;@D04EZ5DTE81&gt; if you see this, tagging and messages from the spreadsheet are working!</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -38756,7 +38756,7 @@
   <dimension ref="A1:Y629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39296,10 +39296,10 @@
         <v>206</v>
       </c>
       <c r="X6" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y6" t="s">
         <v>208</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -39329,13 +39329,13 @@
       </c>
       <c r="P7" s="4"/>
       <c r="W7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="X7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y7" t="s">
         <v>210</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">

--- a/example/Sample_Bar_test1.xlsx
+++ b/example/Sample_Bar_test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF764FD-843E-4165-8DF5-88D51E73B7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3412D197-7695-4BFC-901E-3010B6950414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4995" yWindow="1365" windowWidth="40695" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,10 +716,10 @@
     <t>starting with the data</t>
   </si>
   <si>
-    <t>hey &lt;@D04EZ5DTE81&gt; if you see this, tagging and messages from the spreadsheet are working!</t>
+    <t>test</t>
   </si>
   <si>
-    <t>test</t>
+    <t>hey &lt;@U04EGFS01A9&gt; if you see this, tagging and messages from the spreadsheet are working!</t>
   </si>
 </sst>
 </file>
@@ -38756,7 +38756,7 @@
   <dimension ref="A1:Y629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39329,13 +39329,13 @@
       </c>
       <c r="P7" s="4"/>
       <c r="W7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X7" t="s">
         <v>209</v>
       </c>
       <c r="Y7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">

--- a/example/Sample_Bar_test1.xlsx
+++ b/example/Sample_Bar_test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3412D197-7695-4BFC-901E-3010B6950414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A073ACFB-F508-4992-A576-AD10BD7F34A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4995" yWindow="1365" windowWidth="40695" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="211">
   <si>
     <t>Do not change the format of the Acquisitions or Samples tab.Other tabs can be added and edited as needed.</t>
   </si>
@@ -714,9 +714,6 @@
   </si>
   <si>
     <t>starting with the data</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>hey &lt;@U04EGFS01A9&gt; if you see this, tagging and messages from the spreadsheet are working!</t>
@@ -38756,7 +38753,7 @@
   <dimension ref="A1:Y629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39328,14 +39325,14 @@
         <v>0.3</v>
       </c>
       <c r="P7" s="4"/>
-      <c r="W7" t="s">
-        <v>210</v>
+      <c r="W7">
+        <v>0</v>
       </c>
       <c r="X7" t="s">
         <v>209</v>
       </c>
       <c r="Y7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">

--- a/example/Sample_Bar_test1.xlsx
+++ b/example/Sample_Bar_test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A073ACFB-F508-4992-A576-AD10BD7F34A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCC4144-F5E2-41CC-B480-74B846C325E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="1365" windowWidth="40695" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39220" yWindow="-4520" windowWidth="30950" windowHeight="16050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>spiral</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>angles</t>
@@ -716,7 +713,10 @@
     <t>starting with the data</t>
   </si>
   <si>
-    <t>hey &lt;@U04EGFS01A9&gt; if you see this, tagging and messages from the spreadsheet are working!</t>
+    <t>tagging and messages from the spreadsheet are working!</t>
+  </si>
+  <si>
+    <t>carbon</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1383,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1403,12 +1403,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1428,7 +1428,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -1489,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>37</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="19" t="str">
         <f>VLOOKUP(B1,SheetRulesAndMetaData!$B7:$F28,2,FALSE)</f>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="3" spans="1:22" s="17" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="21" t="str">
         <f>VLOOKUP(B1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="4" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="21" t="str">
         <f>VLOOKUP(B1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="5" spans="1:22" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="21">
         <f>VLOOKUP(B1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
@@ -1944,16 +1944,16 @@
         <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G6" s="27">
         <v>310704</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" s="27" t="b">
         <v>1</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="V6" s="29">
         <f ca="1">TODAY()</f>
-        <v>44933</v>
+        <v>44934</v>
       </c>
     </row>
     <row r="7" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
@@ -2010,19 +2010,19 @@
         <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G7" s="27">
         <v>310704</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I7" s="27" t="b">
         <v>1</v>
@@ -2037,7 +2037,7 @@
         <v>0.25</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>58</v>
@@ -2046,16 +2046,16 @@
         <v>2</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T7" s="27">
         <v>10</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="V7" s="29">
         <f ca="1">TODAY()</f>
-        <v>44933</v>
+        <v>44934</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -38752,8 +38752,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Y629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38787,7 +38787,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>5</v>
@@ -38820,7 +38820,7 @@
         <v>49</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M1" s="24" t="s">
         <v>51</v>
@@ -38832,13 +38832,13 @@
         <v>40</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="24" t="s">
         <v>52</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S1" s="24" t="s">
         <v>39</v>
@@ -38850,21 +38850,21 @@
         <v>42</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W1" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="X1" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="Y1" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="13" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="25" t="str">
         <f>VLOOKUP(B$1,SheetRulesAndMetaData!$B$29:$F$50,2,FALSE)</f>
@@ -38965,7 +38965,7 @@
     </row>
     <row r="3" spans="1:25" s="13" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="25" t="str">
         <f>VLOOKUP(B$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
@@ -39069,7 +39069,7 @@
     </row>
     <row r="4" spans="1:25" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="25">
         <f>VLOOKUP(B$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
@@ -39170,7 +39170,7 @@
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="25">
         <f>VLOOKUP(B$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
@@ -39286,17 +39286,17 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="P6" s="4"/>
       <c r="W6" t="s">
+        <v>205</v>
+      </c>
+      <c r="X6" t="s">
         <v>206</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>207</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -39329,10 +39329,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y7" t="s">
         <v>209</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -41324,10 +41324,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -41350,7 +41350,7 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="9"/>
@@ -41370,13 +41370,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="9"/>
@@ -41436,22 +41436,22 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="F7" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -41468,16 +41468,16 @@
     </row>
     <row r="8" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>53</v>
@@ -41498,22 +41498,22 @@
     </row>
     <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -41530,19 +41530,19 @@
     </row>
     <row r="10" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="12"/>
@@ -41560,7 +41560,7 @@
     </row>
     <row r="11" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>7</v>
@@ -41569,10 +41569,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="12"/>
@@ -41590,19 +41590,19 @@
     </row>
     <row r="12" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="12"/>
@@ -41620,16 +41620,16 @@
     </row>
     <row r="13" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="E13" s="12">
         <v>310704</v>
@@ -41650,22 +41650,22 @@
     </row>
     <row r="14" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -41682,16 +41682,16 @@
     </row>
     <row r="15" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="9" t="b">
         <v>1</v>
@@ -41712,22 +41712,22 @@
     </row>
     <row r="16" spans="1:18" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="9" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -41744,22 +41744,22 @@
     </row>
     <row r="17" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -41776,22 +41776,22 @@
     </row>
     <row r="18" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -41808,7 +41808,7 @@
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>14</v>
@@ -41817,7 +41817,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>57</v>
@@ -41838,7 +41838,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>15</v>
@@ -41847,10 +41847,10 @@
         <v>26</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="12"/>
@@ -41868,7 +41868,7 @@
     </row>
     <row r="21" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>16</v>
@@ -41877,13 +41877,13 @@
         <v>27</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" s="18">
         <v>1</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -41900,7 +41900,7 @@
     </row>
     <row r="22" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>17</v>
@@ -41909,11 +41909,11 @@
         <v>28</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -41930,7 +41930,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>18</v>
@@ -41939,7 +41939,7 @@
         <v>29</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>60</v>
@@ -41960,7 +41960,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>19</v>
@@ -41969,13 +41969,13 @@
         <v>30</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>54</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -41992,7 +41992,7 @@
     </row>
     <row r="25" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>20</v>
@@ -42001,13 +42001,13 @@
         <v>31</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -42024,7 +42024,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>21</v>
@@ -42033,7 +42033,7 @@
         <v>32</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -42052,7 +42052,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>22</v>
@@ -42061,11 +42061,11 @@
         <v>33</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -42082,16 +42082,16 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -42110,16 +42110,16 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
@@ -42138,22 +42138,22 @@
     </row>
     <row r="30" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -42170,22 +42170,22 @@
     </row>
     <row r="31" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>113</v>
-      </c>
       <c r="F31" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -42202,22 +42202,22 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="E32" s="18">
         <v>2</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -42234,22 +42234,22 @@
     </row>
     <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>117</v>
-      </c>
       <c r="E33" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -42266,22 +42266,22 @@
     </row>
     <row r="34" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>155</v>
-      </c>
       <c r="F34" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -42298,22 +42298,22 @@
     </row>
     <row r="35" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="F35" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -42330,22 +42330,22 @@
     </row>
     <row r="36" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="E36" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>162</v>
-      </c>
       <c r="F36" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -42362,22 +42362,22 @@
     </row>
     <row r="37" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>164</v>
-      </c>
       <c r="E37" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -42394,22 +42394,22 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>166</v>
-      </c>
       <c r="F38" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -42426,22 +42426,22 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -42458,22 +42458,22 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -42490,22 +42490,22 @@
     </row>
     <row r="41" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>174</v>
-      </c>
       <c r="F41" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -42522,22 +42522,22 @@
     </row>
     <row r="42" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>176</v>
-      </c>
       <c r="E42" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -42554,22 +42554,22 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>178</v>
-      </c>
       <c r="E43" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -42586,127 +42586,127 @@
     </row>
     <row r="44" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="18" t="s">
-        <v>181</v>
-      </c>
       <c r="F44" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>195</v>
       </c>
       <c r="G45" s="12"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>187</v>
-      </c>
       <c r="E46" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G46" s="12"/>
     </row>
     <row r="47" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>64</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="E49" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="18" t="s">
         <v>197</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>198</v>
       </c>
       <c r="G49" s="12"/>
     </row>
@@ -42717,7 +42717,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G50" s="12"/>
     </row>

--- a/example/Sample_Bar_test1.xlsx
+++ b/example/Sample_Bar_test1.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCC4144-F5E2-41CC-B480-74B846C325E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A04F9BC-B94B-43F9-8108-491D540CDCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39220" yWindow="-4520" windowWidth="30950" windowHeight="16050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,33 +27,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={AF21D3A3-C285-426E-9589-5D767983D246}</author>
-    <author>tc={58AA31AC-0C15-477E-8808-CBF39EC24C66}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AF21D3A3-C285-426E-9589-5D767983D246}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    The Jupyterhub tester should read cell B4 first and compare against a list of valid sheets that is updated with each new version of the spreadsheet that is released.</t>
-      </text>
-    </comment>
-    <comment ref="F17" authorId="1" shapeId="0" xr:uid="{58AA31AC-0C15-477E-8808-CBF39EC24C66}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Clarify 0 vs 180 etc.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1058,9 +1026,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Patel, Bijal B. (Fed)" id="{279F44F1-578F-4938-9B3C-F47DAE1EE193}" userId="Patel, Bijal B. (Fed)" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1358,17 +1324,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-01-04T20:16:19.03" personId="{279F44F1-578F-4938-9B3C-F47DAE1EE193}" id="{AF21D3A3-C285-426E-9589-5D767983D246}">
-    <text>The Jupyterhub tester should read cell B4 first and compare against a list of valid sheets that is updated with each new version of the spreadsheet that is released.</text>
-  </threadedComment>
-  <threadedComment ref="F17" dT="2023-01-04T20:35:24.66" personId="{279F44F1-578F-4938-9B3C-F47DAE1EE193}" id="{58AA31AC-0C15-477E-8808-CBF39EC24C66}">
-    <text>Clarify 0 vs 180 etc.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
@@ -38740,10 +38695,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -41300,11 +41252,12 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B514C0-9C99-41C6-BC0F-B41277EB212E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B514C0-9C99-41C6-BC0F-B41277EB212E}">
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -42847,6 +42800,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>